--- a/databases/database_real_Cu_nimply_Cd.xlsx
+++ b/databases/database_real_Cu_nimply_Cd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08583F1-4BF4-41C2-9325-05890CC4983C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80FDBF-6D3F-4AEE-8023-358ED13288F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="3972" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Promotor associated with Ferric-chelate reductase</t>
   </si>
   <si>
-    <t>van de Mortrel et al., Plant, Cell, and Environment, 2008</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -634,6 +631,12 @@
   </si>
   <si>
     <t>notes: These expression profiles often apply to seedlings or pre-flowering plants, often specifically the root tissue</t>
+  </si>
+  <si>
+    <t>Suzuki, Koizumi, and Sano, Plant, Cell, and Environment, 2001.</t>
+  </si>
+  <si>
+    <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
   </si>
 </sst>
 </file>
@@ -685,13 +688,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FC0B67-C143-4E31-A58F-929298EF32F4}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1064,7 +1071,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1078,7 +1085,7 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J2" t="s">
@@ -1088,7 +1095,7 @@
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1096,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1113,6 +1120,9 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1128,7 +1138,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1145,6 +1155,9 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1160,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1172,12 +1185,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1192,10 +1205,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1207,27 +1220,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
         <v>110</v>
-      </c>
-      <c r="L6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1239,22 +1255,22 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
         <v>106</v>
-      </c>
-      <c r="L7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1262,7 +1278,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1274,10 +1290,13 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
@@ -1294,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1314,7 +1333,7 @@
       <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1332,7 +1351,7 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1344,12 +1363,12 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1367,7 +1386,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1379,19 +1398,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" t="s">
-        <v>76</v>
+      <c r="I11" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
         <v>74</v>
@@ -1399,10 +1418,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1417,30 +1436,30 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
+      <c r="I12" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1452,30 +1471,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1487,33 +1506,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1525,33 +1544,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1563,33 +1582,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1601,30 +1620,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
         <v>121</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1636,30 +1655,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I18" t="s">
-        <v>162</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1671,30 +1690,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>121</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1706,30 +1725,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
         <v>127</v>
       </c>
-      <c r="H20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>121</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1741,22 +1760,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
         <v>157</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" t="s">
-        <v>158</v>
-      </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1813,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1833,16 +1852,16 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1859,94 +1878,94 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
         <v>149</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2053,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10B3961-BE2E-4FDD-8E5E-7097ABFF7922}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -2091,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2117,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2146,21 +2165,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
         <v>149</v>
-      </c>
-      <c r="K3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2172,24 +2191,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2201,24 +2220,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2230,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2307,10 +2326,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/databases/database_real_Cu_nimply_Cd.xlsx
+++ b/databases/database_real_Cu_nimply_Cd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80FDBF-6D3F-4AEE-8023-358ED13288F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861B98C9-54A8-4948-B2EF-4035245FD794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68AF531A-C0DF-4C37-A879-18BC87D3DB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotors" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>HSP terminator</t>
   </si>
   <si>
-    <t>Califlower Mosaic Virus (CaMV) 35S promotor generally constitutive in most plants</t>
-  </si>
-  <si>
-    <t>CaMV 35S Promotor</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -208,24 +202,9 @@
     </r>
   </si>
   <si>
-    <t>Promotor associated with protein AAG50970.1 which is Cadmium-induced</t>
-  </si>
-  <si>
     <t>Cd(2)</t>
   </si>
   <si>
-    <t>CdI3-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
-  </si>
-  <si>
-    <t>CAO-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with protein AAD01509.1 which is Cadmium-inhibited</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -247,21 +226,9 @@
     <t>Oryza sativa</t>
   </si>
   <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 8</t>
-  </si>
-  <si>
-    <t>Promotor associated with exocyst complex component EXO70B1 on chromosome 11</t>
-  </si>
-  <si>
-    <t>EXO70B1-associated promotor chromosome 11</t>
-  </si>
-  <si>
     <t>Os05g0148900</t>
   </si>
   <si>
-    <t>GSTF1-associated promotor</t>
-  </si>
-  <si>
     <t>Os11g0572200</t>
   </si>
   <si>
@@ -277,9 +244,6 @@
     <t>Cd(1)</t>
   </si>
   <si>
-    <t>CdI10-associated promotor</t>
-  </si>
-  <si>
     <t>At2G36220</t>
   </si>
   <si>
@@ -289,12 +253,6 @@
     <t>Activated by copper 2.3x, inhibited by cadmium 1.43x (devisor) there appears to be no significant cases of Cd activation and Cu inhibition</t>
   </si>
   <si>
-    <t>Promotor associated with glycosyltransferase (GT) chromozome 7</t>
-  </si>
-  <si>
-    <t>GT-associated promotor</t>
-  </si>
-  <si>
     <t>Os07g0201500</t>
   </si>
   <si>
@@ -313,15 +271,9 @@
     <t>Cu</t>
   </si>
   <si>
-    <t>FRO2-associated promotor</t>
-  </si>
-  <si>
     <t>Aboout 4x greater expression in Zn and Cd Exposure</t>
   </si>
   <si>
-    <t>Promotor associated with Ferric-chelate reductase</t>
-  </si>
-  <si>
     <t>AT1G01580</t>
   </si>
   <si>
@@ -340,36 +292,21 @@
     <t>Zn(1);Cd(1)</t>
   </si>
   <si>
-    <t>RSU1-associated promotor</t>
-  </si>
-  <si>
     <t>Zn(1)</t>
   </si>
   <si>
-    <t>Promotr associated with a Ribosomal Protein L13 homolog</t>
-  </si>
-  <si>
     <t>AT5G59520</t>
   </si>
   <si>
-    <t>FRD3-associated promotor</t>
-  </si>
-  <si>
     <t>Anywhere from 4x to 7x less activity from Zn depending on abundance, about 2x less activity from Cd</t>
   </si>
   <si>
     <t>AT3G08040</t>
   </si>
   <si>
-    <t>Promotor associated with MATE efflux family protein, putative</t>
-  </si>
-  <si>
     <t>Zn(2);Cd(1)</t>
   </si>
   <si>
-    <t>Promotor associated with hypothetical protein AT3G13950</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zn(1) </t>
   </si>
   <si>
@@ -377,12 +314,6 @@
   </si>
   <si>
     <t>AT3G13950</t>
-  </si>
-  <si>
-    <t>ZIP4-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Zinc Ion Protein 4</t>
   </si>
   <si>
     <t>Assuncao et al., PNAS, 2010
@@ -392,9 +323,6 @@
     <t>AT1G10970</t>
   </si>
   <si>
-    <t>ZIP2-associated promotor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cu(1) </t>
   </si>
   <si>
@@ -404,24 +332,12 @@
     <t>Noted in first source that ZIP2 induced by Zn and in second that downregulated in Cu excess. Not sure which would dominate if both present</t>
   </si>
   <si>
-    <t>ZIP5-associated promotor</t>
-  </si>
-  <si>
     <t>Assuncao et al., PNAS, 2010</t>
   </si>
   <si>
     <t>AT1G05300</t>
   </si>
   <si>
-    <t>strong upregulation of this promotor by zinc deficiency low leakiness</t>
-  </si>
-  <si>
-    <t>IRT1-associated promotor</t>
-  </si>
-  <si>
-    <t>Promotor associated with Fe(II) transporter</t>
-  </si>
-  <si>
     <t>AT4G19690</t>
   </si>
   <si>
@@ -431,9 +347,6 @@
     <t>guessed values from northern blot data</t>
   </si>
   <si>
-    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promotor in plant synthetic biology</t>
-  </si>
-  <si>
     <t>Zinc</t>
   </si>
   <si>
@@ -450,9 +363,6 @@
   </si>
   <si>
     <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Promotor from the Registry of Standard Biological Parts</t>
   </si>
   <si>
     <t>Zomorrodi and Maranas, European Journal of Operational Research, 2014.</t>
@@ -576,9 +486,6 @@
     <t>P_RM</t>
   </si>
   <si>
-    <t>Promotor engineered to be activated by cI</t>
-  </si>
-  <si>
     <t>Broedel et al. Nature Communications, 2016.</t>
   </si>
   <si>
@@ -637,6 +544,99 @@
   </si>
   <si>
     <t>van de Mortel et al., Plant, Cell, and Environment, 2008</t>
+  </si>
+  <si>
+    <t>CaMV 35S promoter</t>
+  </si>
+  <si>
+    <t>Califlower Mosaic Virus (CaMV) 35S promoter generally constitutive in most plants</t>
+  </si>
+  <si>
+    <t>Resposible for transcription of all CaMV genes, often used as strong constitutve promoter in plant synthetic biology</t>
+  </si>
+  <si>
+    <t>CdI3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAG50970.1 which is Cadmium-induced</t>
+  </si>
+  <si>
+    <t>CAO-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAD01509.1 which is Cadmium-inhibited</t>
+  </si>
+  <si>
+    <t>EXO70B1-associated promoter chromosome 11</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 11</t>
+  </si>
+  <si>
+    <t>IRT1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Fe(II) transporter</t>
+  </si>
+  <si>
+    <t>ZIP5-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Zinc Ion Protein 4</t>
+  </si>
+  <si>
+    <t>strong upregulation of this promoter by zinc deficiency low leakiness</t>
+  </si>
+  <si>
+    <t>CdI10-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with protein AAF79287.1 which is Cadmium- and Copper-induced</t>
+  </si>
+  <si>
+    <t>GSTF1-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with exocyst complex component EXO70B1 on chromosome 8</t>
+  </si>
+  <si>
+    <t>GT-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with glycosyltransferase (GT) chromozome 7</t>
+  </si>
+  <si>
+    <t>FRO2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with Ferric-chelate reductase</t>
+  </si>
+  <si>
+    <t>RSU1-associated promoter</t>
+  </si>
+  <si>
+    <t>FRD3-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter associated with MATE efflux family protein, putative</t>
+  </si>
+  <si>
+    <t>promoter associated with hypothetical protein AT3G13950</t>
+  </si>
+  <si>
+    <t>ZIP4-associated promoter</t>
+  </si>
+  <si>
+    <t>ZIP2-associated promoter</t>
+  </si>
+  <si>
+    <t>promoter from the Registry of Standard Biological Parts</t>
+  </si>
+  <si>
+    <t>promoter engineered to be activated by cI</t>
+  </si>
+  <si>
+    <t>Promoter associated with a Ribosomal Protein L13 homolog</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,24 +1054,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1083,27 +1083,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1115,30 +1115,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1150,30 +1150,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1185,30 +1185,30 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1220,30 +1220,30 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1255,30 +1255,30 @@
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1290,30 +1290,30 @@
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1325,33 +1325,33 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1363,30 +1363,30 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1398,30 +1398,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1433,33 +1433,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1471,30 +1471,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1506,33 +1506,33 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1544,33 +1544,33 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1582,33 +1582,33 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1620,30 +1620,30 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1655,30 +1655,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1690,30 +1690,30 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1725,30 +1725,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1760,22 +1760,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1832,10 +1832,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1852,16 +1852,16 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1878,94 +1878,94 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2136,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2165,21 +2165,21 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2191,24 +2191,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2220,24 +2220,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2249,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,26 +2310,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2349,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
